--- a/data/opal_all_modes.xlsx
+++ b/data/opal_all_modes.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josh_nicholas/github/oz-movement-travel-update/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C70A625-D2C5-894F-A098-93D2AD4C6D65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C6B04B-30AD-B641-B1AA-7E13DEE04106}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3060" windowWidth="33220" windowHeight="17440"/>
+    <workbookView xWindow="0" yWindow="3060" windowWidth="33220" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="opal_all_modes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Grand Total</t>
   </si>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -879,11 +879,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="BJ15" sqref="BJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1060,9 +1060,6 @@
       <c r="BF1" s="1">
         <v>44256</v>
       </c>
-      <c r="BG1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1239,9 +1236,7 @@
       <c r="BF2" s="2">
         <v>16987968</v>
       </c>
-      <c r="BG2" s="2">
-        <v>1239419301</v>
-      </c>
+      <c r="BG2" s="2"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1418,9 +1413,7 @@
       <c r="BF3" s="2">
         <v>609291</v>
       </c>
-      <c r="BG3" s="2">
-        <v>62684651</v>
-      </c>
+      <c r="BG3" s="2"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1597,9 +1590,7 @@
       <c r="BF4" s="2">
         <v>1815171</v>
       </c>
-      <c r="BG4" s="2">
-        <v>54110172</v>
-      </c>
+      <c r="BG4" s="2"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1674,9 +1665,7 @@
       <c r="BF5" s="2">
         <v>1546027</v>
       </c>
-      <c r="BG5" s="2">
-        <v>30857801</v>
-      </c>
+      <c r="BG5" s="2"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1853,9 +1842,7 @@
       <c r="BF6" s="2">
         <v>20909670</v>
       </c>
-      <c r="BG6" s="2">
-        <v>1617062000</v>
-      </c>
+      <c r="BG6" s="2"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2032,9 +2019,7 @@
       <c r="BF7" s="2">
         <v>41868127</v>
       </c>
-      <c r="BG7" s="2">
-        <v>3004133925</v>
-      </c>
+      <c r="BG7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
